--- a/doc/SW_Spec/B6x_IO_MAP.xlsx
+++ b/doc/SW_Spec/B6x_IO_MAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SDK\b6x_release\sdk6\doc\SW_Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D105607D-9BD8-40A0-BB95-74D10C6DA165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3993A0-B50D-4EF5-BE61-4A5842D8A5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="2115" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IO MAP" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>special</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPTIM </t>
   </si>
   <si>
     <r>
@@ -694,10 +691,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>CTMR_ETR_IN(I)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>ATMR_BK(I)</t>
   </si>
   <si>
@@ -730,6 +723,14 @@
   </si>
   <si>
     <t>CTMR_CH1(IO)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTMR_ETR(I)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1245,7 +1246,7 @@
   <dimension ref="B2:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1318,13 +1319,13 @@
         <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="10"/>
       <c r="L3" s="12"/>
       <c r="N3" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -1332,26 +1333,26 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1361,28 +1362,28 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1392,29 +1393,29 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="L6" s="3"/>
     </row>
@@ -1423,26 +1424,26 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1452,28 +1453,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1483,28 +1484,28 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1514,32 +1515,32 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -1547,32 +1548,32 @@
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="G11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
@@ -1580,26 +1581,26 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1609,28 +1610,28 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1640,28 +1641,28 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1671,28 +1672,28 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1702,26 +1703,26 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1731,26 +1732,26 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1760,26 +1761,26 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1789,26 +1790,26 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1818,26 +1819,26 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1847,23 +1848,23 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1874,23 +1875,23 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1901,19 +1902,19 @@
         <v>20</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1926,21 +1927,21 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
       </c>
       <c r="F30" s="6"/>
       <c r="I30" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K30" s="3">
         <v>0</v>
@@ -1948,21 +1949,21 @@
     </row>
     <row r="31" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
       </c>
       <c r="F31" s="6"/>
       <c r="I31" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K31" s="3">
         <v>1</v>
@@ -1970,21 +1971,21 @@
     </row>
     <row r="32" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
       </c>
       <c r="F32" s="6"/>
       <c r="I32" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K32" s="3">
         <v>2</v>
@@ -1992,21 +1993,21 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="3">
         <v>3</v>
       </c>
       <c r="F33" s="6"/>
       <c r="I33" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K33" s="3">
         <v>3</v>
@@ -2014,21 +2015,21 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E34" s="3">
         <v>4</v>
       </c>
       <c r="F34" s="6"/>
       <c r="I34" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K34" s="3">
         <v>4</v>
@@ -2036,21 +2037,21 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E35" s="3">
         <v>5</v>
       </c>
       <c r="F35" s="6"/>
       <c r="I35" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K35" s="3">
         <v>5</v>
@@ -2058,21 +2059,21 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E36" s="3">
         <v>6</v>
       </c>
       <c r="F36" s="6"/>
       <c r="I36" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K36" s="3">
         <v>6</v>
@@ -2080,21 +2081,21 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E37" s="3">
         <v>7</v>
       </c>
       <c r="F37" s="6"/>
       <c r="I37" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K37" s="3">
         <v>7</v>
@@ -2102,21 +2103,21 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E38" s="3">
         <v>8</v>
       </c>
       <c r="F38" s="6"/>
       <c r="I38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="K38" s="3">
         <v>8</v>
@@ -2124,21 +2125,21 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E39" s="3">
         <v>9</v>
       </c>
       <c r="F39" s="6"/>
       <c r="I39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="K39" s="3">
         <v>9</v>
@@ -2146,21 +2147,21 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E40" s="3">
         <v>10</v>
       </c>
       <c r="F40" s="6"/>
       <c r="I40" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="K40" s="3">
         <v>10</v>
@@ -2168,21 +2169,21 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E41" s="3">
         <v>11</v>
       </c>
       <c r="F41" s="6"/>
       <c r="I41" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J41" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="K41" s="3">
         <v>11</v>
@@ -2190,21 +2191,21 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E42" s="3">
         <v>12</v>
       </c>
       <c r="F42" s="6"/>
       <c r="I42" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="K42" s="3">
         <v>12</v>
@@ -2212,21 +2213,21 @@
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E43" s="3">
         <v>13</v>
       </c>
       <c r="F43" s="6"/>
       <c r="I43" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="K43" s="3">
         <v>13</v>
@@ -2234,11 +2235,11 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E44" s="3">
         <v>14</v>
@@ -2247,11 +2248,11 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E45" s="3">
         <v>15</v>
@@ -2260,11 +2261,11 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E46" s="3">
         <v>16</v>
@@ -2272,11 +2273,11 @@
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E47" s="3">
         <v>17</v>
@@ -2284,11 +2285,11 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E48" s="3">
         <v>18</v>
@@ -2296,11 +2297,11 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E49" s="3">
         <v>19</v>
@@ -2308,11 +2309,11 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E50" s="3">
         <v>20</v>
@@ -2320,11 +2321,11 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E51" s="3">
         <v>21</v>
@@ -2332,11 +2333,11 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E52" s="3">
         <v>22</v>
@@ -2344,11 +2345,11 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E53" s="3">
         <v>23</v>
@@ -2356,11 +2357,11 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E54" s="3">
         <v>24</v>
